--- a/out.xlsx
+++ b/out.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,126 +551,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841040.2447500003</v>
+        <v>504856.049390626</v>
       </c>
       <c r="C3" t="n">
-        <v>1033302.498609375</v>
+        <v>1010532.421640625</v>
       </c>
       <c r="D3" t="n">
-        <v>241286.973375</v>
+        <v>399923.9929531248</v>
       </c>
       <c r="E3" t="n">
-        <v>-15.89597552499997</v>
+        <v>-49.5143950609374</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.264897417545033</v>
+        <v>-4.25731054355469</v>
       </c>
       <c r="G3" t="n">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="H3" t="n">
-        <v>44.28571428571428</v>
+        <v>34.61538461538461</v>
       </c>
       <c r="I3" t="n">
-        <v>4.813865009971874</v>
+        <v>6.721220520353199</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.605241126803183</v>
+        <v>-4.439136829842005</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1477733662826219</v>
+        <v>-0.06925583491882437</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.791666666666667</v>
+        <v>1.270833333333333</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0.4354166666666667</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>SmaCross</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>841040.2447500003</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1033302.498609375</v>
-      </c>
-      <c r="D4" t="n">
-        <v>241286.973375</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-15.89597552499997</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-3.264897417545033</v>
-      </c>
-      <c r="G4" t="n">
-        <v>70</v>
-      </c>
-      <c r="H4" t="n">
-        <v>44.28571428571428</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.813865009971874</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-3.605241126803183</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1477733662826219</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>1.791666666666667</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>0.4354166666666667</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>EmaCross</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>974364.0074999999</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1070815.13278125</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46924.42343749999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-2.563599250000005</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-2.044188419442756</v>
-      </c>
-      <c r="G5" t="n">
-        <v>13</v>
-      </c>
-      <c r="H5" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.036803787379187</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-4.739943076511444</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-0.09891279377823858</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>7.666666666666667</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>1.764583333333333</v>
+        <v>0.1958333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/out.xlsx
+++ b/out.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achap\Documents\GitHub\backtesting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E373B030-9F4A-470F-9E73-874ADAE9E5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="8430" yWindow="1830" windowWidth="16695" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Equity Final [$]</t>
+  </si>
+  <si>
+    <t>Equity Peak [$]</t>
+  </si>
+  <si>
+    <t>Commissions [$]</t>
+  </si>
+  <si>
+    <t>Return [%]</t>
+  </si>
+  <si>
+    <t>Buy &amp; Hold Return [%]</t>
+  </si>
+  <si>
+    <t># Trades</t>
+  </si>
+  <si>
+    <t>Win Rate [%]</t>
+  </si>
+  <si>
+    <t>Best Trade [%]</t>
+  </si>
+  <si>
+    <t>Worst Trade [%]</t>
+  </si>
+  <si>
+    <t>Avg. Trade [%]</t>
+  </si>
+  <si>
+    <t>Max. Trade Duration</t>
+  </si>
+  <si>
+    <t>Avg. Trade Duration</t>
+  </si>
+  <si>
+    <t>EmaCross</t>
+  </si>
+  <si>
+    <t>SmaCross</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +102,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,169 +427,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Strategy</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Equity Final [$]</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Equity Peak [$]</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Commissions [$]</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Return [%]</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Buy &amp; Hold Return [%]</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t># Trades</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Win Rate [%]</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Best Trade [%]</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Worst Trade [%]</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Trade [%]</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Max. Trade Duration</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Trade Duration</t>
-        </is>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>EmaCross</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
         <v>1155771.778515625</v>
       </c>
-      <c r="C2" t="n">
-        <v>1234551.80728125</v>
-      </c>
-      <c r="D2" t="n">
-        <v>81291.03298437501</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2">
+        <v>1234551.8072812499</v>
+      </c>
+      <c r="D2">
+        <v>81291.032984375008</v>
+      </c>
+      <c r="E2">
         <v>15.57717785156253</v>
       </c>
-      <c r="F2" t="n">
-        <v>-2.20997640620936</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>-2.2099764062093601</v>
+      </c>
+      <c r="G2">
         <v>19</v>
       </c>
-      <c r="H2" t="n">
-        <v>57.89473684210527</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.472265629532194</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2">
+        <v>57.894736842105267</v>
+      </c>
+      <c r="I2">
+        <v>7.4722656295321936</v>
+      </c>
+      <c r="J2">
         <v>-1.48845119003933</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.9731947980055722</v>
-      </c>
-      <c r="L2" s="2" t="n">
+      <c r="K2">
+        <v>0.97319479800557218</v>
+      </c>
+      <c r="L2" s="2">
         <v>6.427083333333333</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="2">
         <v>1.427083333333333</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>SmaCross</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>504856.049390626</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>504856.04939062602</v>
+      </c>
+      <c r="C3">
         <v>1010532.421640625</v>
       </c>
-      <c r="D3" t="n">
-        <v>399923.9929531248</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-49.5143950609374</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-4.25731054355469</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="D3">
+        <v>399923.99295312481</v>
+      </c>
+      <c r="E3">
+        <v>-49.514395060937403</v>
+      </c>
+      <c r="F3">
+        <v>-4.2573105435546896</v>
+      </c>
+      <c r="G3">
         <v>156</v>
       </c>
-      <c r="H3" t="n">
-        <v>34.61538461538461</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.721220520353199</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-4.439136829842005</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.06925583491882437</v>
-      </c>
-      <c r="L3" s="2" t="n">
+      <c r="H3">
+        <v>34.615384615384613</v>
+      </c>
+      <c r="I3">
+        <v>6.7212205203531994</v>
+      </c>
+      <c r="J3">
+        <v>-4.4391368298420053</v>
+      </c>
+      <c r="K3">
+        <v>-6.9255834918824366E-2</v>
+      </c>
+      <c r="L3" s="2">
         <v>1.270833333333333</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="2">
+        <v>0.1958333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>504856.04939062602</v>
+      </c>
+      <c r="C4">
+        <v>1010532.421640625</v>
+      </c>
+      <c r="D4">
+        <v>399923.99295312481</v>
+      </c>
+      <c r="E4">
+        <v>-49.514395060937403</v>
+      </c>
+      <c r="F4">
+        <v>-4.2573105435546896</v>
+      </c>
+      <c r="G4">
+        <v>156</v>
+      </c>
+      <c r="H4">
+        <v>34.615384615384613</v>
+      </c>
+      <c r="I4">
+        <v>6.7212205203531994</v>
+      </c>
+      <c r="J4">
+        <v>-4.4391368298420053</v>
+      </c>
+      <c r="K4">
+        <v>-6.9255834918824366E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.270833333333333</v>
+      </c>
+      <c r="M4" s="2">
         <v>0.1958333333333333</v>
       </c>
     </row>

--- a/out.xlsx
+++ b/out.xlsx
@@ -1,93 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achap\Documents\GitHub\backtesting\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E373B030-9F4A-470F-9E73-874ADAE9E5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="1830" windowWidth="16695" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>Equity Final [$]</t>
-  </si>
-  <si>
-    <t>Equity Peak [$]</t>
-  </si>
-  <si>
-    <t>Commissions [$]</t>
-  </si>
-  <si>
-    <t>Return [%]</t>
-  </si>
-  <si>
-    <t>Buy &amp; Hold Return [%]</t>
-  </si>
-  <si>
-    <t># Trades</t>
-  </si>
-  <si>
-    <t>Win Rate [%]</t>
-  </si>
-  <si>
-    <t>Best Trade [%]</t>
-  </si>
-  <si>
-    <t>Worst Trade [%]</t>
-  </si>
-  <si>
-    <t>Avg. Trade [%]</t>
-  </si>
-  <si>
-    <t>Max. Trade Duration</t>
-  </si>
-  <si>
-    <t>Avg. Trade Duration</t>
-  </si>
-  <si>
-    <t>EmaCross</t>
-  </si>
-  <si>
-    <t>SmaCross</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,44 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,190 +421,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Take Profit [%]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stop Loss [%]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Equity Final [$]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Equity Peak [$]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Commissions [$]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Return [%]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Buy &amp; Hold Return [%]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t># Trades</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Win Rate [%]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Trade [%]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Worst Trade [%]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Trade [%]</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Max. Trade Duration</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Trade Duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+      <c r="C2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D2" t="n">
         <v>1155771.778515625</v>
       </c>
-      <c r="C2">
-        <v>1234551.8072812499</v>
-      </c>
-      <c r="D2">
-        <v>81291.032984375008</v>
-      </c>
-      <c r="E2">
+      <c r="E2" t="n">
+        <v>1234551.80728125</v>
+      </c>
+      <c r="F2" t="n">
+        <v>81291.03298437501</v>
+      </c>
+      <c r="G2" t="n">
         <v>15.57717785156253</v>
       </c>
-      <c r="F2">
-        <v>-2.2099764062093601</v>
-      </c>
-      <c r="G2">
+      <c r="H2" t="n">
+        <v>-2.20997640620936</v>
+      </c>
+      <c r="I2" t="n">
         <v>19</v>
       </c>
-      <c r="H2">
-        <v>57.894736842105267</v>
-      </c>
-      <c r="I2">
-        <v>7.4722656295321936</v>
-      </c>
-      <c r="J2">
+      <c r="J2" t="n">
+        <v>57.89473684210527</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7.472265629532194</v>
+      </c>
+      <c r="L2" t="n">
         <v>-1.48845119003933</v>
       </c>
-      <c r="K2">
-        <v>0.97319479800557218</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="M2" t="n">
+        <v>0.9731947980055722</v>
+      </c>
+      <c r="N2" s="2" t="n">
         <v>6.427083333333333</v>
       </c>
-      <c r="M2" s="2">
+      <c r="O2" s="2" t="n">
         <v>1.427083333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>504856.04939062602</v>
-      </c>
-      <c r="C3">
-        <v>1010532.421640625</v>
-      </c>
-      <c r="D3">
-        <v>399923.99295312481</v>
-      </c>
-      <c r="E3">
-        <v>-49.514395060937403</v>
-      </c>
-      <c r="F3">
-        <v>-4.2573105435546896</v>
-      </c>
-      <c r="G3">
-        <v>156</v>
-      </c>
-      <c r="H3">
-        <v>34.615384615384613</v>
-      </c>
-      <c r="I3">
-        <v>6.7212205203531994</v>
-      </c>
-      <c r="J3">
-        <v>-4.4391368298420053</v>
-      </c>
-      <c r="K3">
-        <v>-6.9255834918824366E-2</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1.270833333333333</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.1958333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>504856.04939062602</v>
-      </c>
-      <c r="C4">
-        <v>1010532.421640625</v>
-      </c>
-      <c r="D4">
-        <v>399923.99295312481</v>
-      </c>
-      <c r="E4">
-        <v>-49.514395060937403</v>
-      </c>
-      <c r="F4">
-        <v>-4.2573105435546896</v>
-      </c>
-      <c r="G4">
-        <v>156</v>
-      </c>
-      <c r="H4">
-        <v>34.615384615384613</v>
-      </c>
-      <c r="I4">
-        <v>6.7212205203531994</v>
-      </c>
-      <c r="J4">
-        <v>-4.4391368298420053</v>
-      </c>
-      <c r="K4">
-        <v>-6.9255834918824366E-2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1.270833333333333</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.1958333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/out.xlsx
+++ b/out.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,10 +16,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -37,12 +44,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -55,15 +77,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -426,9 +451,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -452,60 +477,80 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Interval</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Equity Final [$]</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Equity Peak [$]</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Commissions [$]</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Return [%]</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Buy &amp; Hold Return [%]</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t># Trades</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Win Rate [%]</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Best Trade [%]</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Worst Trade [%]</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Avg. Trade [%]</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Max. Trade Duration</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Avg. Trade Duration</t>
         </is>
@@ -523,44 +568,330 @@
       <c r="C2" t="n">
         <v>-1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15m</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025/03/31</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1160882.784640625</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1240150.96153125</v>
+      </c>
+      <c r="J2" t="n">
+        <v>81635.02685937501</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16.08827846406249</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2.20997640620936</v>
+      </c>
+      <c r="M2" t="n">
+        <v>19</v>
+      </c>
+      <c r="N2" t="n">
+        <v>57.89473684210527</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7.713160437464572</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.498145053841626</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.003901241779004</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>6.427083333333333</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>1.427083333333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15m</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025/03/31</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>1155771.778515625</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I3" t="n">
         <v>1234551.80728125</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J3" t="n">
         <v>81291.03298437501</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K3" t="n">
         <v>15.57717785156253</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L3" t="n">
         <v>-2.20997640620936</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M3" t="n">
         <v>19</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N3" t="n">
         <v>57.89473684210527</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O3" t="n">
         <v>7.472265629532194</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P3" t="n">
         <v>-1.48845119003933</v>
       </c>
-      <c r="M2" t="n">
+      <c r="Q3" t="n">
         <v>0.9731947980055722</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="R3" s="2" t="n">
         <v>6.427083333333333</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="S3" s="2" t="n">
+        <v>1.427083333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15m</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025/03/31</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1155771.778515625</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1234551.80728125</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81291.03298437501</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.57717785156253</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2.20997640620936</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19</v>
+      </c>
+      <c r="N4" t="n">
+        <v>57.89473684210527</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.472265629532194</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-1.48845119003933</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.9731947980055722</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>6.427083333333333</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>1.427083333333333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15m</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025/03/31</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1155771.778515625</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1234551.80728125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>81291.03298437501</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.57717785156253</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-2.20997640620936</v>
+      </c>
+      <c r="M5" t="n">
+        <v>19</v>
+      </c>
+      <c r="N5" t="n">
+        <v>57.89473684210527</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7.472265629532194</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1.48845119003933</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.9731947980055722</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>6.427083333333333</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>1.427083333333333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15m</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025/03/31</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1155771.778515625</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1234551.80728125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>81291.03298437501</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.57717785156253</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-2.20997640620936</v>
+      </c>
+      <c r="M6" t="n">
+        <v>19</v>
+      </c>
+      <c r="N6" t="n">
+        <v>57.89473684210527</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7.472265629532194</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-1.48845119003933</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.9731947980055722</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>6.427083333333333</v>
+      </c>
+      <c r="S6" s="2" t="n">
         <v>1.427083333333333</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/out.xlsx
+++ b/out.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,18 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -44,27 +37,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -77,18 +55,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -451,9 +426,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -566,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -587,16 +562,16 @@
         <v>30.98958333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1160882.784640625</v>
+        <v>1224354.169578126</v>
       </c>
       <c r="I2" t="n">
-        <v>1240150.96153125</v>
+        <v>1239381.255515626</v>
       </c>
       <c r="J2" t="n">
-        <v>81635.02685937501</v>
+        <v>82442.61146874999</v>
       </c>
       <c r="K2" t="n">
-        <v>16.08827846406249</v>
+        <v>22.43541695781257</v>
       </c>
       <c r="L2" t="n">
         <v>-2.20997640620936</v>
@@ -605,26 +580,26 @@
         <v>19</v>
       </c>
       <c r="N2" t="n">
-        <v>57.89473684210527</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="O2" t="n">
-        <v>7.713160437464572</v>
+        <v>7.472265629532194</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.498145053841626</v>
+        <v>-1.48845119003933</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.003901241779004</v>
+        <v>1.249853750632335</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>6.427083333333333</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.427083333333333</v>
+        <v>1.423611111111111</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>EmaCross</t>
         </is>
@@ -633,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -647,51 +622,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/26</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>30.98958333333333</v>
+        <v>56.98958333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>1155771.778515625</v>
+        <v>1061143.6874375</v>
       </c>
       <c r="I3" t="n">
-        <v>1234551.80728125</v>
+        <v>1286362.55865625</v>
       </c>
       <c r="J3" t="n">
-        <v>81291.03298437501</v>
+        <v>145067.509125</v>
       </c>
       <c r="K3" t="n">
-        <v>15.57717785156253</v>
+        <v>6.114368743749987</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.20997640620936</v>
+        <v>12.15800342290458</v>
       </c>
       <c r="M3" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N3" t="n">
-        <v>57.89473684210527</v>
+        <v>51.51515151515152</v>
       </c>
       <c r="O3" t="n">
         <v>7.472265629532194</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.48845119003933</v>
+        <v>-2.886016794589064</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9731947980055722</v>
+        <v>0.8052344187981619</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>6.427083333333333</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>1.427083333333333</v>
+        <v>1.561805555555555</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>EmaCross</t>
         </is>
@@ -700,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -709,56 +684,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025/03/01</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/26</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30.98958333333333</v>
+        <v>25.98958333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1155771.778515625</v>
+        <v>908428.472296875</v>
       </c>
       <c r="I4" t="n">
-        <v>1234551.80728125</v>
+        <v>1103059.4218125</v>
       </c>
       <c r="J4" t="n">
-        <v>81291.03298437501</v>
+        <v>50247.23653125</v>
       </c>
       <c r="K4" t="n">
-        <v>15.57717785156253</v>
+        <v>-9.157152770312504</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.20997640620936</v>
+        <v>14.71903821290861</v>
       </c>
       <c r="M4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N4" t="n">
-        <v>57.89473684210527</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="O4" t="n">
-        <v>7.472265629532194</v>
+        <v>2.588923648945918</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.48845119003933</v>
+        <v>-2.886016794589064</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9731947980055722</v>
+        <v>0.2247649285406217</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>6.427083333333333</v>
+        <v>5.90625</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>1.427083333333333</v>
+        <v>1.580555555555555</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>EmaCross</t>
         </is>
@@ -767,11 +742,11 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15m</t>
+          <t>5m</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -781,51 +756,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/26</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30.98958333333333</v>
+        <v>56.99652777777778</v>
       </c>
       <c r="H5" t="n">
-        <v>1155771.778515625</v>
+        <v>612122.9976874996</v>
       </c>
       <c r="I5" t="n">
-        <v>1234551.80728125</v>
+        <v>1133873.06221875</v>
       </c>
       <c r="J5" t="n">
-        <v>81291.03298437501</v>
+        <v>321191.1272500001</v>
       </c>
       <c r="K5" t="n">
-        <v>15.57717785156253</v>
+        <v>-38.78770023125004</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.20997640620936</v>
+        <v>12.35757800547082</v>
       </c>
       <c r="M5" t="n">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="N5" t="n">
-        <v>57.89473684210527</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="O5" t="n">
-        <v>7.472265629532194</v>
+        <v>6.258851779973207</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.48845119003933</v>
+        <v>-10.26724091885394</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9731947980055722</v>
+        <v>-0.157193322735194</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>6.427083333333333</v>
+        <v>3.701388888888889</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>1.427083333333333</v>
+        <v>0.6180555555555556</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>EmaCross</t>
         </is>
@@ -834,64 +809,2744 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025/04/01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025/04/26</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>25.99652777777778</v>
+      </c>
+      <c r="H6" t="n">
+        <v>692944.3633906253</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1051179.021328125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>132740.482890625</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-30.70556366093747</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14.75064147820063</v>
+      </c>
+      <c r="M6" t="n">
+        <v>38</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15.78947368421053</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6.258851779973207</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-10.26724091885394</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.605045436736551</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>3.701388888888889</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>0.6826388888888889</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025/03/01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025/03/31</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>30.99652777777778</v>
+      </c>
+      <c r="H7" t="n">
+        <v>882725.9105624999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1133873.06221875</v>
+      </c>
+      <c r="J7" t="n">
+        <v>200765.67146875</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-11.72740894375001</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-2.035968287820483</v>
+      </c>
+      <c r="M7" t="n">
+        <v>53</v>
+      </c>
+      <c r="N7" t="n">
+        <v>33.9622641509434</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.938996380557427</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-3.528350435558303</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1688604425696738</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>2.979166666666667</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0.5756944444444444</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H8" t="n">
+        <v>870850.2317187499</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1019339.674921875</v>
+      </c>
+      <c r="J8" t="n">
+        <v>105723.28915625</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-12.91497682812501</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M8" t="n">
+        <v>30</v>
+      </c>
+      <c r="N8" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.179415891469749</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-2.676556079684311</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.07107113541614529</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0.7159722222222222</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0.2201388888888889</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025/04/14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025/04/20</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H9" t="n">
+        <v>805388.7417812498</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1001989.461375</v>
+      </c>
+      <c r="J9" t="n">
+        <v>95126.73168750004</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-19.46112582187503</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.695097171689662</v>
+      </c>
+      <c r="M9" t="n">
+        <v>28</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.571428571428571</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.7175072433518226</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-1.355400691377273</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.4390010191559379</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>2.801388888888889</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>0.23125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025/04/07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025/04/13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>6.998611111111111</v>
+      </c>
+      <c r="H10" t="n">
+        <v>795042.8626562498</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1001106.0071875</v>
+      </c>
+      <c r="J10" t="n">
+        <v>124187.727828125</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-20.49571373437502</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.847828298321415</v>
+      </c>
+      <c r="M10" t="n">
+        <v>37</v>
+      </c>
+      <c r="N10" t="n">
+        <v>21.62162162162162</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.546093762103275</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-4.964349103608567</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.2425989376885873</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0.9159722222222222</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>0.1847222222222222</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025/04/01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025/04/07</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1044756.55515625</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1080341.622531251</v>
+      </c>
+      <c r="J11" t="n">
+        <v>91049.595015625</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.475655515625048</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-4.067378987102767</v>
+      </c>
+      <c r="M11" t="n">
+        <v>23</v>
+      </c>
+      <c r="N11" t="n">
+        <v>47.82608695652174</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.507958502109643</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-1.835472991292164</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.5737420210418342</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>0.7118055555555556</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>0.2861111111111111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025/04/01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>26.99652777777778</v>
+      </c>
+      <c r="H12" t="n">
+        <v>737117.9894531246</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1055359.084984375</v>
+      </c>
+      <c r="J12" t="n">
+        <v>149973.943375</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-26.28820105468754</v>
+      </c>
+      <c r="L12" t="n">
+        <v>13.72211718347152</v>
+      </c>
+      <c r="M12" t="n">
+        <v>43</v>
+      </c>
+      <c r="N12" t="n">
+        <v>39.53488372093023</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6.440889840577125</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-10.00646433946764</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.3641118596440118</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>3.715277777777778</v>
+      </c>
+      <c r="S12" s="2" t="n">
+        <v>0.6263888888888889</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025/04/01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>26.99652777777778</v>
+      </c>
+      <c r="H13" t="n">
+        <v>746868.8916562498</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1057424.160234375</v>
+      </c>
+      <c r="J13" t="n">
+        <v>151441.0721093751</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-25.31311083437502</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13.72211718347152</v>
+      </c>
+      <c r="M13" t="n">
+        <v>43</v>
+      </c>
+      <c r="N13" t="n">
+        <v>34.88372093023256</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6.12502524125087</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-8.366323757248374</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.3030014727351871</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>3.614583333333333</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>0.6263888888888889</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025/04/01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>26.99652777777778</v>
+      </c>
+      <c r="H14" t="n">
+        <v>689359.2978906253</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1042552.153390625</v>
+      </c>
+      <c r="J14" t="n">
+        <v>138275.6736875</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-31.06407021093747</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13.72211718347152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>41</v>
+      </c>
+      <c r="N14" t="n">
+        <v>14.63414634146341</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.12502524125087</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-7.407813432980004</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.5632484071035671</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>3.600694444444445</v>
+      </c>
+      <c r="S14" s="2" t="n">
+        <v>0.6569444444444444</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025/04/01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>26.99652777777778</v>
+      </c>
+      <c r="H15" t="n">
+        <v>735322.4393437499</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1055292.468484375</v>
+      </c>
+      <c r="J15" t="n">
+        <v>150344.626296875</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-26.46775606562501</v>
+      </c>
+      <c r="L15" t="n">
+        <v>13.72211718347152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>43</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39.53488372093023</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6.440889840577125</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-10.00646433946764</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.3448877029567088</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>3.715277777777778</v>
+      </c>
+      <c r="S15" s="2" t="n">
+        <v>0.6263888888888889</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025/04/01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>26.99652777777778</v>
+      </c>
+      <c r="H16" t="n">
+        <v>726411.98928125</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1048306.686796875</v>
+      </c>
+      <c r="J16" t="n">
+        <v>147915.66059375</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-27.35880107187499</v>
+      </c>
+      <c r="L16" t="n">
+        <v>13.72211718347152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>43</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39.53488372093023</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6.335656433321601</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-10.26724091885394</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.3940819593285183</v>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v>3.701388888888889</v>
+      </c>
+      <c r="S16" s="2" t="n">
+        <v>0.6263888888888889</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025/04/01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>26.99652777777778</v>
+      </c>
+      <c r="H17" t="n">
+        <v>746868.8916562498</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1057424.160234375</v>
+      </c>
+      <c r="J17" t="n">
+        <v>151441.0721093751</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-25.31311083437502</v>
+      </c>
+      <c r="L17" t="n">
+        <v>13.72211718347152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>43</v>
+      </c>
+      <c r="N17" t="n">
+        <v>34.88372093023256</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6.12502524125087</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-8.366323757248374</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.3030014727351871</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>3.614583333333333</v>
+      </c>
+      <c r="S17" s="2" t="n">
+        <v>0.6263888888888889</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025/04/01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>26.99652777777778</v>
+      </c>
+      <c r="H18" t="n">
+        <v>923593.0483437503</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1088451.880453125</v>
+      </c>
+      <c r="J18" t="n">
+        <v>108794.8890625</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-7.64069516562497</v>
+      </c>
+      <c r="L18" t="n">
+        <v>13.72211718347152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>28</v>
+      </c>
+      <c r="N18" t="n">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4.506994767247063</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-8.366323757248374</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.1431289479307374</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>3.614583333333333</v>
+      </c>
+      <c r="S18" s="2" t="n">
+        <v>0.9263888888888889</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H19" t="n">
+        <v>968381.0843593747</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1022529.257609375</v>
+      </c>
+      <c r="J19" t="n">
+        <v>75789.88392187499</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-3.161891564062528</v>
+      </c>
+      <c r="L19" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M19" t="n">
+        <v>20</v>
+      </c>
+      <c r="N19" t="n">
+        <v>70</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.493458289458216</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-2.795272754804623</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.312315751226766</v>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v>0.80625</v>
+      </c>
+      <c r="S19" s="2" t="n">
+        <v>0.2395833333333333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H20" t="n">
+        <v>957629.1134218749</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1022529.257609375</v>
+      </c>
+      <c r="J20" t="n">
+        <v>90859.67548437499</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-4.237088657812507</v>
+      </c>
+      <c r="L20" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M20" t="n">
+        <v>24</v>
+      </c>
+      <c r="N20" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.493458289458216</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-2.795272754804623</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2477352990008841</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="S20" s="2" t="n">
+        <v>0.2347222222222222</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H21" t="n">
+        <v>928866.7114843748</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1022529.257609375</v>
+      </c>
+      <c r="J21" t="n">
+        <v>105868.035953125</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-7.113328851562517</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M21" t="n">
+        <v>28</v>
+      </c>
+      <c r="N21" t="n">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.493458289458216</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-2.795272754804623</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.1441595936506834</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>0.9138888888888889</v>
+      </c>
+      <c r="S21" s="2" t="n">
+        <v>0.2354166666666667</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H22" t="n">
+        <v>881086.9349999998</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1022529.257609375</v>
+      </c>
+      <c r="J22" t="n">
+        <v>132283.242125</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-11.89130650000002</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M22" t="n">
+        <v>36</v>
+      </c>
+      <c r="N22" t="n">
+        <v>41.66666666666667</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.493458289458216</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-2.795272754804623</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.04126589415009985</v>
+      </c>
+      <c r="R22" s="2" t="n">
+        <v>0.5930555555555556</v>
+      </c>
+      <c r="S22" s="2" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H23" t="n">
+        <v>857729.4265937499</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1010174.908734375</v>
+      </c>
+      <c r="J23" t="n">
+        <v>136945.959375</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-14.22705734062501</v>
+      </c>
+      <c r="L23" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M23" t="n">
+        <v>39</v>
+      </c>
+      <c r="N23" t="n">
+        <v>41.02564102564102</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.43318315395029</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-2.795272754804623</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.00907210523991564</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>0.5715277777777777</v>
+      </c>
+      <c r="S23" s="2" t="n">
+        <v>0.1784722222222222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H24" t="n">
+        <v>779376.8363124998</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1010174.908734375</v>
+      </c>
+      <c r="J24" t="n">
+        <v>163741.0280625</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-22.06231636875002</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M24" t="n">
+        <v>49</v>
+      </c>
+      <c r="N24" t="n">
+        <v>18.36734693877551</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.43318315395029</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-2.795272754804623</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.1309309605811326</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>0.5527777777777778</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>0.1416666666666667</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C25" t="n">
         <v>-1</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15m</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2025/03/01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025/03/31</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>30.98958333333333</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1155771.778515625</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1234551.80728125</v>
-      </c>
-      <c r="J6" t="n">
-        <v>81291.03298437501</v>
-      </c>
-      <c r="K6" t="n">
-        <v>15.57717785156253</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-2.20997640620936</v>
-      </c>
-      <c r="M6" t="n">
-        <v>19</v>
-      </c>
-      <c r="N6" t="n">
-        <v>57.89473684210527</v>
-      </c>
-      <c r="O6" t="n">
-        <v>7.472265629532194</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-1.48845119003933</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.9731947980055722</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>6.427083333333333</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>1.427083333333333</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H25" t="n">
+        <v>938289.4068906248</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1011873.281234375</v>
+      </c>
+      <c r="J25" t="n">
+        <v>97242.02275</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-6.171059310937522</v>
+      </c>
+      <c r="L25" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M25" t="n">
+        <v>26</v>
+      </c>
+      <c r="N25" t="n">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.493458289458216</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-2.676556079684311</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.1714699949694642</v>
+      </c>
+      <c r="R25" s="2" t="n">
+        <v>0.6229166666666667</v>
+      </c>
+      <c r="S25" s="2" t="n">
+        <v>0.2444444444444444</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H26" t="n">
+        <v>902388.7601249997</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1007844.183703125</v>
+      </c>
+      <c r="J26" t="n">
+        <v>93792.66170312501</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-9.761123987500033</v>
+      </c>
+      <c r="L26" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M26" t="n">
+        <v>26</v>
+      </c>
+      <c r="N26" t="n">
+        <v>53.84615384615385</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.493458289458216</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-3.177246731353489</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.01058531495039539</v>
+      </c>
+      <c r="R26" s="2" t="n">
+        <v>0.6229166666666667</v>
+      </c>
+      <c r="S26" s="2" t="n">
+        <v>0.2444444444444444</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H27" t="n">
+        <v>882990.16496875</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1006784.463640625</v>
+      </c>
+      <c r="J27" t="n">
+        <v>100523.272484375</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-11.700983503125</v>
+      </c>
+      <c r="L27" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M27" t="n">
+        <v>28</v>
+      </c>
+      <c r="N27" t="n">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.493458289458216</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-3.238901962055873</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.03768071954941554</v>
+      </c>
+      <c r="R27" s="2" t="n">
+        <v>0.6229166666666667</v>
+      </c>
+      <c r="S27" s="2" t="n">
+        <v>0.2270833333333333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H28" t="n">
+        <v>860358.5318125002</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1001859.322609375</v>
+      </c>
+      <c r="J28" t="n">
+        <v>108740.781046875</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-13.96414681874998</v>
+      </c>
+      <c r="L28" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M28" t="n">
+        <v>31</v>
+      </c>
+      <c r="N28" t="n">
+        <v>64.51612903225806</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8014310942327851</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-3.451047611547042</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-0.1286831311916536</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>0.6229166666666667</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <v>0.2229166666666667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H29" t="n">
+        <v>814293.5268437499</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J29" t="n">
+        <v>130069.31965625</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-18.57064731562501</v>
+      </c>
+      <c r="L29" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M29" t="n">
+        <v>39</v>
+      </c>
+      <c r="N29" t="n">
+        <v>74.35897435897436</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.8215065926348131</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-3.673358515140501</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.1681470376686534</v>
+      </c>
+      <c r="R29" s="2" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="S29" s="2" t="n">
+        <v>0.1736111111111111</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H30" t="n">
+        <v>954783.1137031248</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1030225.474296875</v>
+      </c>
+      <c r="J30" t="n">
+        <v>90853.97207812501</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-4.521688629687519</v>
+      </c>
+      <c r="L30" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M30" t="n">
+        <v>24</v>
+      </c>
+      <c r="N30" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.531197533607132</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-2.668314925652226</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.2333375675451332</v>
+      </c>
+      <c r="R30" s="2" t="n">
+        <v>0.6229166666666667</v>
+      </c>
+      <c r="S30" s="2" t="n">
+        <v>0.2347222222222222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H31" t="n">
+        <v>926828.1698749999</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1012009.950046875</v>
+      </c>
+      <c r="J31" t="n">
+        <v>82560.825296875</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-7.31718301250001</v>
+      </c>
+      <c r="L31" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M31" t="n">
+        <v>22</v>
+      </c>
+      <c r="N31" t="n">
+        <v>50</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.799925323218843</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-2.377699928054922</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0725988898252039</v>
+      </c>
+      <c r="R31" s="2" t="n">
+        <v>0.6229166666666667</v>
+      </c>
+      <c r="S31" s="2" t="n">
+        <v>0.25625</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H32" t="n">
+        <v>924135.6218437499</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1012734.841109375</v>
+      </c>
+      <c r="J32" t="n">
+        <v>75032.70145312499</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-7.58643781562501</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M32" t="n">
+        <v>20</v>
+      </c>
+      <c r="N32" t="n">
+        <v>45</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.799925323218843</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-2.204713049207996</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.02333075036096144</v>
+      </c>
+      <c r="R32" s="2" t="n">
+        <v>0.6229166666666667</v>
+      </c>
+      <c r="S32" s="2" t="n">
+        <v>0.2819444444444444</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H33" t="n">
+        <v>933055.4317812498</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1014338.289453125</v>
+      </c>
+      <c r="J33" t="n">
+        <v>75810.204015625</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-6.694456821875018</v>
+      </c>
+      <c r="L33" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M33" t="n">
+        <v>20</v>
+      </c>
+      <c r="N33" t="n">
+        <v>50</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.931618534984048</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-2.108004386203799</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.08065903398488672</v>
+      </c>
+      <c r="R33" s="2" t="n">
+        <v>0.63125</v>
+      </c>
+      <c r="S33" s="2" t="n">
+        <v>0.2819444444444444</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H34" t="n">
+        <v>933055.4317812498</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1014338.289453125</v>
+      </c>
+      <c r="J34" t="n">
+        <v>75810.204015625</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-6.694456821875018</v>
+      </c>
+      <c r="L34" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M34" t="n">
+        <v>20</v>
+      </c>
+      <c r="N34" t="n">
+        <v>50</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.931618534984048</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-2.108004386203799</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.08065903398488672</v>
+      </c>
+      <c r="R34" s="2" t="n">
+        <v>0.63125</v>
+      </c>
+      <c r="S34" s="2" t="n">
+        <v>0.2819444444444444</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H35" t="n">
+        <v>933055.4317812498</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1014338.289453125</v>
+      </c>
+      <c r="J35" t="n">
+        <v>75810.204015625</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-6.694456821875018</v>
+      </c>
+      <c r="L35" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M35" t="n">
+        <v>20</v>
+      </c>
+      <c r="N35" t="n">
+        <v>50</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.931618534984048</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-2.108004386203799</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.08065903398488672</v>
+      </c>
+      <c r="R35" s="2" t="n">
+        <v>0.63125</v>
+      </c>
+      <c r="S35" s="2" t="n">
+        <v>0.2819444444444444</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H36" t="n">
+        <v>856940.5532343748</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1017359.781140625</v>
+      </c>
+      <c r="J36" t="n">
+        <v>106070.912953125</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-14.30594467656251</v>
+      </c>
+      <c r="L36" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M36" t="n">
+        <v>30</v>
+      </c>
+      <c r="N36" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.085492287056012</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-3.177246731353489</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-0.1210434189263587</v>
+      </c>
+      <c r="R36" s="2" t="n">
+        <v>0.7034722222222223</v>
+      </c>
+      <c r="S36" s="2" t="n">
+        <v>0.2201388888888889</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H37" t="n">
+        <v>869400.2291718748</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1015706.276953125</v>
+      </c>
+      <c r="J37" t="n">
+        <v>114625.893265625</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-13.05997708281252</v>
+      </c>
+      <c r="L37" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M37" t="n">
+        <v>32</v>
+      </c>
+      <c r="N37" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.840476406917246</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-2.108004386203799</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-0.04490716626214253</v>
+      </c>
+      <c r="R37" s="2" t="n">
+        <v>0.5930555555555556</v>
+      </c>
+      <c r="S37" s="2" t="n">
+        <v>0.20625</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H38" t="n">
+        <v>871636.637234375</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1012009.950046875</v>
+      </c>
+      <c r="J38" t="n">
+        <v>124031.203953125</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-12.8363362765625</v>
+      </c>
+      <c r="L38" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M38" t="n">
+        <v>34</v>
+      </c>
+      <c r="N38" t="n">
+        <v>32.35294117647059</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.799925323218843</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-2.364131685892423</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-0.01390666748432023</v>
+      </c>
+      <c r="R38" s="2" t="n">
+        <v>0.5930555555555556</v>
+      </c>
+      <c r="S38" s="2" t="n">
+        <v>0.19375</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H39" t="n">
+        <v>866539.2603437495</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1032234.607109375</v>
+      </c>
+      <c r="J39" t="n">
+        <v>132268.04178125</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-13.34607396562505</v>
+      </c>
+      <c r="L39" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M39" t="n">
+        <v>36</v>
+      </c>
+      <c r="N39" t="n">
+        <v>36.11111111111111</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.531197533607132</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-2.377699928054922</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-0.006895539017859331</v>
+      </c>
+      <c r="R39" s="2" t="n">
+        <v>0.5930555555555556</v>
+      </c>
+      <c r="S39" s="2" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H40" t="n">
+        <v>881086.9349999998</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1022529.257609375</v>
+      </c>
+      <c r="J40" t="n">
+        <v>132283.242125</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-11.89130650000002</v>
+      </c>
+      <c r="L40" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M40" t="n">
+        <v>36</v>
+      </c>
+      <c r="N40" t="n">
+        <v>41.66666666666667</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.493458289458216</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-2.795272754804623</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.04126589415009985</v>
+      </c>
+      <c r="R40" s="2" t="n">
+        <v>0.5930555555555556</v>
+      </c>
+      <c r="S40" s="2" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H41" t="n">
+        <v>857729.4265937499</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1010174.908734375</v>
+      </c>
+      <c r="J41" t="n">
+        <v>136945.959375</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-14.22705734062501</v>
+      </c>
+      <c r="L41" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M41" t="n">
+        <v>39</v>
+      </c>
+      <c r="N41" t="n">
+        <v>41.02564102564102</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.43318315395029</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-2.795272754804623</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-0.00907210523991564</v>
+      </c>
+      <c r="R41" s="2" t="n">
+        <v>0.5715277777777777</v>
+      </c>
+      <c r="S41" s="2" t="n">
+        <v>0.1784722222222222</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H42" t="n">
+        <v>851329.3887656246</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1012009.950046875</v>
+      </c>
+      <c r="J42" t="n">
+        <v>139574.317515625</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-14.86706112343754</v>
+      </c>
+      <c r="L42" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M42" t="n">
+        <v>39</v>
+      </c>
+      <c r="N42" t="n">
+        <v>35.8974358974359</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.721722194605291</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-2.377699928054922</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-0.02614012608467275</v>
+      </c>
+      <c r="R42" s="2" t="n">
+        <v>0.5715277777777777</v>
+      </c>
+      <c r="S42" s="2" t="n">
+        <v>0.1784722222222222</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H43" t="n">
+        <v>874024.1157031244</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1012009.950046875</v>
+      </c>
+      <c r="J43" t="n">
+        <v>132869.371828125</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-12.59758842968756</v>
+      </c>
+      <c r="L43" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M43" t="n">
+        <v>37</v>
+      </c>
+      <c r="N43" t="n">
+        <v>37.83783783783784</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.721722194605291</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-2.364131685892423</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.02441794667358277</v>
+      </c>
+      <c r="R43" s="2" t="n">
+        <v>0.5715277777777777</v>
+      </c>
+      <c r="S43" s="2" t="n">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H44" t="n">
+        <v>860014.3367499994</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1015706.276953125</v>
+      </c>
+      <c r="J44" t="n">
+        <v>124566.98671875</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-13.99856632500006</v>
+      </c>
+      <c r="L44" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M44" t="n">
+        <v>35</v>
+      </c>
+      <c r="N44" t="n">
+        <v>31.42857142857143</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.840476406917246</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-2.108004386203799</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-0.04341923249508994</v>
+      </c>
+      <c r="R44" s="2" t="n">
+        <v>0.5715277777777777</v>
+      </c>
+      <c r="S44" s="2" t="n">
+        <v>0.1986111111111111</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H45" t="n">
+        <v>858909.5128593746</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1017359.781140625</v>
+      </c>
+      <c r="J45" t="n">
+        <v>116411.427796875</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-14.10904871406254</v>
+      </c>
+      <c r="L45" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M45" t="n">
+        <v>33</v>
+      </c>
+      <c r="N45" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.100921236613695</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-2.676556079684311</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-0.074576571437035</v>
+      </c>
+      <c r="R45" s="2" t="n">
+        <v>0.6319444444444444</v>
+      </c>
+      <c r="S45" s="2" t="n">
+        <v>0.2104166666666667</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>EmaCross</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2025/04/21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025/04/27</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>6.997916666666667</v>
+      </c>
+      <c r="H46" t="n">
+        <v>863249.0440624995</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1019339.674921875</v>
+      </c>
+      <c r="J46" t="n">
+        <v>116795.62315625</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-13.67509559375005</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10.15331539730923</v>
+      </c>
+      <c r="M46" t="n">
+        <v>33</v>
+      </c>
+      <c r="N46" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.162583115928252</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-2.795272754804623</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-0.05516859541108143</v>
+      </c>
+      <c r="R46" s="2" t="n">
+        <v>0.6326388888888889</v>
+      </c>
+      <c r="S46" s="2" t="n">
+        <v>0.2104166666666667</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>